--- a/PL.xlsx
+++ b/PL.xlsx
@@ -249,19 +249,19 @@
     <t>AlarmStandingWaterMeters</t>
   </si>
   <si>
-    <t>Zdarzenie wodomierzy stojących</t>
+    <t>Zdarzenie niskie zużycie wody</t>
   </si>
   <si>
     <t>AlarmStandingWaterMetersMaxValue</t>
   </si>
   <si>
-    <t>Maksymalna dozwolona objętość wody w ciągu zadanej liczby dni postoju</t>
+    <t>Sumaryczne zużycie wody, poniżej którego generowane będzie zdarzenie *</t>
   </si>
   <si>
     <t>AlarmStandingWaterMetersMaxValueInfo</t>
   </si>
   <si>
-    <t>Sumaryczna wartość objętości poniżej której zdarzenie zostanie wygenerowane.</t>
+    <t>* dotyczy podanego powyżej okresu</t>
   </si>
   <si>
     <t>AlarmType</t>
@@ -1060,7 +1060,7 @@
     <t>DaysStopover</t>
   </si>
   <si>
-    <t>Liczba dni postoju</t>
+    <t>Okres w dniach dla którego sprawdzane będzie sumaryczne zużycie wody</t>
   </si>
   <si>
     <t>DefaultDeviceTypeFor</t>
@@ -1795,7 +1795,7 @@
     <t>GenerateAlarmStandingWaterMeters</t>
   </si>
   <si>
-    <t>Generuj zdarzenie brak zużycia wody</t>
+    <t>Generuj zdarzenie niskie zużycie wody</t>
   </si>
   <si>
     <t>GetMeasurementPointNameFromRadioNumberIfNoteEmpty</t>
@@ -2332,7 +2332,7 @@
     <t>MainMeterUsage</t>
   </si>
   <si>
-    <t>Zużycie wodomierza głównego</t>
+    <t>Zużycie z wodomierza głównego</t>
   </si>
   <si>
     <t>MainWindow</t>
@@ -2482,7 +2482,7 @@
     <t>MeasururementPointUsage</t>
   </si>
   <si>
-    <t>Zużycie liczników</t>
+    <t>Zużycie z liczników</t>
   </si>
   <si>
     <t>MessageLengthGreaterThen200</t>
@@ -3409,7 +3409,7 @@
     <t>SubMetersUsage</t>
   </si>
   <si>
-    <t>Zużycie podliczników</t>
+    <t>Zużycie z podliczników</t>
   </si>
   <si>
     <t>TemperatureOverflow</t>
